--- a/Zeitaufzeichnung_Pötzl.xlsx
+++ b/Zeitaufzeichnung_Pötzl.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena Pötzl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena Pötzl\Documents\JKU\it_Praktikum\abgabe\nerd40_\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA67F5D-8697-4F33-8FA3-5957372010DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E0032-A968-4A3C-AC21-176E6B1613E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="222">
   <si>
     <t>Zeitaufzeichnung - Gruppe X</t>
   </si>
@@ -696,6 +696,12 @@
   </si>
   <si>
     <t>Videos bearbeiten + hochladen</t>
+  </si>
+  <si>
+    <t>Überarbeiten GitLab</t>
+  </si>
+  <si>
+    <t>Lena</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1198,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_3" displayName="Table_3" ref="A4:G60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_3" displayName="Table_3" ref="A4:G61">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Datum"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Start"/>
@@ -1575,7 +1581,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="33">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$60,Übersicht!$A8,'Mitglied 1'!$G$5:$G$60)</f>
+        <f>SUMIF('Mitglied 1'!$E$5:$E$61,Übersicht!$A8,'Mitglied 1'!$G$5:$G$61)</f>
         <v>0</v>
       </c>
       <c r="C8" s="33">
@@ -1596,7 +1602,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="33">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$60,Übersicht!$A9,'Mitglied 1'!$G$5:$G$60)</f>
+        <f>SUMIF('Mitglied 1'!$E$5:$E$61,Übersicht!$A9,'Mitglied 1'!$G$5:$G$61)</f>
         <v>0</v>
       </c>
       <c r="C9" s="33">
@@ -1617,7 +1623,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="33">
-        <f>SUMIF('Mitglied 1'!$E$5:$E$60,Übersicht!$A10,'Mitglied 1'!$G$5:$G$60)</f>
+        <f>SUMIF('Mitglied 1'!$E$5:$E$61,Übersicht!$A10,'Mitglied 1'!$G$5:$G$61)</f>
         <v>0</v>
       </c>
       <c r="C10" s="33">
@@ -2660,8 +2666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="84" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2681,14 +2687,14 @@
         <v>14</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f>SUM('Mitglied 1'!$G:$G)</f>
-        <v>160.70000000000002</v>
+        <v>164.28333333333336</v>
       </c>
       <c r="H1" s="34"/>
     </row>
@@ -4039,7 +4045,28 @@
         <v>3.4999999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="10">
+        <v>44744</v>
+      </c>
+      <c r="B61" s="11">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0.82291666666666663</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="34">
+        <f>'Mitglied 1'!$C61-'Mitglied 1'!$B61</f>
+        <v>0.14930555555555547</v>
+      </c>
+      <c r="G61" s="38">
+        <f>'Mitglied 1'!$F61*24</f>
+        <v>3.5833333333333313</v>
+      </c>
+    </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4987,7 +5014,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="Q9 W9 L16 S16 L18:L19 S18:S19" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Messeunterlagen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E60" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E5:E61" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"Projektidee,Lernvertrag,Meilenstein 1,Meilenstein 2,Meilenstein 3,Reflektion,Endabgabe"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5702,7 +5729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W996"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
